--- a/frontend-cemos/public/assets/content/direito/8-cnudm/script/vf5.xlsx
+++ b/frontend-cemos/public/assets/content/direito/8-cnudm/script/vf5.xlsx
@@ -483,27 +483,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág. 16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Na zona econômica exclusiva, o Estado costeiro tem direitos de soberania para fins de exploração e aproveitamento dos recursos naturais e jurisdição sobre ilhas artificiais.</t>
+          <t>A zona econômica exclusiva não se estenderá além de 200 milhas marítimas das linhas de base a partir das quais se mede a largura do mar territorial.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Na zona econômica exclusiva, o Estado costeiro exerce soberania plena sobre a coluna d'água, impedindo a navegação de outros Estados, assim como ocorre no mar territorial.</t>
+          <t>A zona econômica exclusiva estender-se-á por, no mínimo, 200 milhas marítimas a partir das linhas de base, podendo ser ampliada conforme interesse do Estado costeiro.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>O Artigo 56 diferencia direitos de soberania (recursos) de jurisdição (instalações), mantendo as liberdades de navegação de outros Estados (Artigo 58).</t>
+          <t>Conforme o **art. 57**, a largura da ZEE não se estenderá além de 200 milhas marítimas.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -517,27 +517,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág. 16</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A zona econômica exclusiva não se estenderá além de 200 milhas marítimas das linhas de base a partir das quais se mede a largura do mar territorial.</t>
+          <t>Na zona econômica exclusiva, o Estado costeiro tem jurisdição no que se refere à investigação científica marinha e à proteção e preservação do meio marinho.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A zona econômica exclusiva estende-se por 200 milhas marítimas a partir do limite exterior do mar territorial, totalizando 212 milhas da costa.</t>
+          <t>Na zona econômica exclusiva, o Estado costeiro possui soberania plena e absoluta sobre a investigação científica marinha, excluindo qualquer jurisdição internacional.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>O Artigo 57 estabelece o limite máximo de 200 milhas contadas a partir das linhas de base (costa).</t>
+          <t>Segundo o **art. 56, 1, "c", "ii" e "iii"**, o Estado costeiro tem jurisdição sobre investigação científica e proteção do meio marinho, de conformidade com a Convenção.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -551,27 +551,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág. 16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Conflitos relativos à atribuição de direitos na ZEE não atribuídos pela Convenção devem ser solucionados numa base de equidade e à luz de todas as circunstâncias pertinentes.</t>
+          <t>O Estado costeiro tem o direito exclusivo de construir e de autorizar e regulamentar a construção, operação e utilização de ilhas artificiais na zona econômica exclusiva.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Se a Convenção não atribui um direito específico na ZEE, prevalece automaticamente o interesse do Estado costeiro sobre o da comunidade internacional.</t>
+          <t>Qualquer Estado tem o direito de construir ilhas artificiais na zona econômica exclusiva de outro Estado, desde que para fins pacíficos.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>O Artigo 59 determina a solução com base na equidade e importância dos interesses para as partes e a comunidade internacional.</t>
+          <t>De acordo com o **art. 60, 1, "a"**, o Estado costeiro tem o direito exclusivo de construir e autorizar ilhas artificiais na ZEE.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -585,27 +585,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pág 17</t>
+          <t>Pág. 17</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>As ilhas artificiais, instalações e estruturas na ZEE não têm o estatuto jurídico de ilhas e não possuem mar territorial próprio.</t>
+          <t>As ilhas artificiais, instalações e estruturas na ZEE não têm o estatuto jurídico de ilhas e não têm mar territorial próprio.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>As ilhas artificiais construídas na ZEE geram mar territorial próprio e alteram a delimitação da zona econômica exclusiva.</t>
+          <t>As ilhas artificiais construídas na ZEE possuem o estatuto jurídico de ilhas, gerando seu próprio mar territorial e zona contígua.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>O Artigo 60, parágrafo 8º, afirma expressamente que tais estruturas não possuem estatuto de ilhas nem mar territorial.</t>
+          <t>O texto do **art. 60, 8** estabelece explicitamente que ilhas artificiais não têm estatuto de ilhas nem mar territorial próprio.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -619,27 +619,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pág 17</t>
+          <t>Pág. 17</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>As zonas de segurança em volta de ilhas artificiais não excederão uma distância de 500 metros, salvo autorização de normas internacionais.</t>
+          <t>O Estado costeiro fixará as capturas permissíveis dos recursos vivos na sua zona econômica exclusiva.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>O Estado costeiro pode estabelecer zonas de segurança de até 12 milhas náuticas ao redor de qualquer plataforma de petróleo na ZEE.</t>
+          <t>A fixação das capturas permissíveis na ZEE é realizada por organismos internacionais, cabendo ao Estado costeiro apenas acatar a decisão.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>O Artigo 60, parágrafo 5º, limita as zonas de segurança a 500 metros, salvo exceções normativas internacionais.</t>
+          <t>Conforme o **art. 61, 1**, é competência do Estado costeiro fixar as capturas permissíveis.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -653,27 +653,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pág 17</t>
+          <t>Pág. 17</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>O Estado costeiro, com base em dados científicos, assegurará que a preservação dos recursos vivos na ZEE não seja ameaçada por excesso de captura.</t>
+          <t>O Estado costeiro deve promover a utilização ótima dos recursos vivos na zona econômica exclusiva, sem prejuízo da conservação.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A conservação dos recursos vivos na ZEE é facultativa, devendo o Estado costeiro priorizar o lucro máximo imediato sobre a sustentabilidade.</t>
+          <t>O Estado costeiro deve priorizar a conservação absoluta dos recursos vivos na ZEE, proibindo sua utilização comercial sempre que possível.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>O Artigo 61, parágrafo 2º, obriga o Estado a assegurar a não ameaça por excesso de captura mediante medidas de conservação.</t>
+          <t>Segundo o **art. 62, 1**, o Estado costeiro deve ter por objetivo promover a utilização ótima dos recursos vivos, respeitando o art. 61.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -687,27 +687,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pág 18</t>
+          <t>Pág. 18</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Quando o Estado costeiro não tiver capacidade para efetuar a totalidade da captura permissível, deve dar a outros Estados acesso ao excedente.</t>
+          <t>Os nacionais de outros Estados que pesquem na zona econômica exclusiva devem cumprir as medidas de conservação estabelecidas nas leis e regulamentos do Estado costeiro.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>O Estado costeiro deve manter o excedente da captura permissível intocado, sendo proibido conceder acesso a outros Estados.</t>
+          <t>Os nacionais de outros Estados que pesquem na ZEE devem cumprir apenas as leis de seus próprios Estados de bandeira, e não as do Estado costeiro.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>O Artigo 62, parágrafo 2º, determina o acesso ao excedente visando a utilização ótima dos recursos.</t>
+          <t>De acordo com o **art. 62, 4**, os nacionais de outros Estados devem cumprir as leis e regulamentos do Estado costeiro.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -721,27 +721,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pág 18</t>
+          <t>Pág. 18</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Os nacionais de outros Estados que pesquem na ZEE devem cumprir as medidas de conservação e as leis e regulamentos do Estado costeiro.</t>
+          <t>Quando uma mesma população de peixes se encontra na ZEE de dois ou mais Estados costeiros, estes devem procurar concertar medidas necessárias para a conservação.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>As frotas pesqueiras estrangeiras na ZEE seguem apenas as leis de seus próprios países, não se submetendo aos regulamentos do Estado costeiro.</t>
+          <t>Quando uma mesma população de peixes se encontra na ZEE de vários Estados, cada Estado age de forma independente, sem necessidade de coordenação.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>O Artigo 62, parágrafo 4º, exige o cumprimento das leis e regulamentos do Estado costeiro.</t>
+          <t>Conforme o **art. 63, 1**, os Estados devem procurar concertar medidas de conservação e desenvolvimento de tais populações.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -755,27 +755,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pág 18</t>
+          <t>Pág. 18</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Estados costeiros devem procurar concertar medidas para a conservação de populações de peixes que se encontrem em zonas econômicas exclusivas de dois ou mais Estados.</t>
+          <t>Para espécies altamente migratórias, o Estado costeiro e demais Estados devem cooperar para assegurar a conservação tanto dentro como fora da zona econômica exclusiva.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cada Estado costeiro deve gerir as populações de peixes em sua ZEE de forma isolada, sendo vedada a coordenação com Estados vizinhos.</t>
+          <t>A gestão das espécies altamente migratórias limita-se estritamente ao interior da zona econômica exclusiva, não havendo cooperação para áreas externas.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>O Artigo 63 exige a cooperação para populações transzonais (straddling stocks).</t>
+          <t>O texto do **art. 64, 1** exige cooperação para conservação tanto dentro como fora da ZEE.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -789,27 +789,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pág 19</t>
+          <t>Pág. 19</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Os Estados em cujos rios se originem populações de peixes anádromos têm por elas interesse e responsabilidade primordiais.</t>
+          <t>Os Estados podem proibir, limitar ou regulamentar o aproveitamento dos mamíferos marinhos de maneira mais estrita que a prevista na Parte V da Convenção.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A responsabilidade sobre peixes anádromos pertence exclusivamente ao Estado onde o peixe é capturado, independentemente de sua origem fluvial.</t>
+          <t>Os Estados não podem impor regras para mamíferos marinhos que sejam mais rígidas do que as normas gerais de pesca estabelecidas na Convenção.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>O Artigo 66, parágrafo 1º, atribui responsabilidade primordial ao Estado de origem (rios).</t>
+          <t>Segundo o **art. 65**, nenhuma disposição restringe o direito de regulamentar o aproveitamento de mamíferos marinhos de maneira mais estrita.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -823,27 +823,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pág 19</t>
+          <t>Pág. 19</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A captura de espécies catádromas deve ser efetuada unicamente nas águas situadas dentro dos limites exteriores das zonas econômicas exclusivas.</t>
+          <t>Os Estados em cujos rios se originem as populações de peixes anádromos têm por tais populações o interesse e a responsabilidade primordiais.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Espécies catádromas podem ser livremente capturadas em alto mar, fora da jurisdição das zonas econômicas exclusivas.</t>
+          <t>O interesse primordial sobre peixes anádromos pertence ao Estado em cuja ZEE o peixe é capturado, independentemente de onde o peixe se originou.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>O Artigo 67, parágrafo 2º, restringe a captura às águas dentro dos limites exteriores das ZEEs.</t>
+          <t>Conforme o **art. 66, 1**, o Estado de origem tem o interesse e a responsabilidade primordiais.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -857,27 +857,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pág 19</t>
+          <t>Pág. 19</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A Parte V da Convenção (ZEE) não se aplica às espécies sedentárias, que são regidas pelo regime da plataforma continental.</t>
+          <t>A Parte V da Convenção (Zona Econômica Exclusiva) não se aplica às espécies sedentárias definidas no artigo 77.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>As espécies sedentárias no leito do mar são consideradas recursos vivos da coluna d'água e seguem as regras de captura da ZEE.</t>
+          <t>As regras da Zona Econômica Exclusiva aplicam-se integralmente a todas as espécies marinhas, incluindo as espécies sedentárias do leito do mar.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>O Artigo 68 exclui expressamente as espécies sedentárias da aplicação da Parte V.</t>
+          <t>De acordo com o **art. 68**, a presente Parte não se aplica às espécies sedentárias.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -891,27 +891,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pág 20</t>
+          <t>Pág. 20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Os Estados sem litoral têm direito a participar, numa base equitativa, no aproveitamento de uma parte apropriada dos excedentes dos recursos vivos da ZEE dos Estados da mesma região.</t>
+          <t>Os Estados sem litoral têm o direito a participar, numa base equitativa, no aproveitamento de uma parte apropriada dos excedentes dos recursos vivos das ZEEs dos Estados costeiros da mesma região.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Os Estados sem litoral não possuem qualquer direito de acesso aos recursos pesqueiros das zonas econômicas exclusivas de seus vizinhos.</t>
+          <t>Os Estados sem litoral não possuem qualquer direito de acesso aos recursos vivos das ZEEs, sendo estes exclusivos dos Estados costeiros.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>O Artigo 69 garante o direito de participação no excedente aos Estados sem litoral.</t>
+          <t>O texto do **art. 69, 1** garante aos Estados sem litoral o direito a participar no aproveitamento dos excedentes.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -925,27 +925,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pág 20</t>
+          <t>Pág. 20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Estados desenvolvidos sem litoral só participam dos excedentes nas ZEEs de Estados costeiros desenvolvidos da mesma região.</t>
+          <t>Os Estados desenvolvidos sem litoral têm direito a participar no aproveitamento dos recursos vivos só nas ZEEs dos Estados costeiros desenvolvidos da mesma região.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Estados desenvolvidos sem litoral têm prioridade para explorar os recursos pesqueiros de Estados costeiros em desenvolvimento.</t>
+          <t>Os Estados desenvolvidos sem litoral podem participar do aproveitamento de recursos nas ZEEs de qualquer Estado da região, inclusive dos em desenvolvimento.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>O Artigo 69, parágrafo 4º, limita a participação dos desenvolvidos às ZEEs de outros desenvolvidos.</t>
+          <t>Segundo o **art. 69, 4**, Estados desenvolvidos sem litoral participam só nas ZEEs de Estados costeiros desenvolvidos.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -959,27 +959,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pág 20</t>
+          <t>Pág. 20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Estados geograficamente desfavorecidos incluem aqueles cuja situação geográfica os torna dependentes dos recursos de outras ZEEs para abastecimento nutricional.</t>
+          <t>A participação de Estados sem litoral deve ser estabelecida por acordos, tendo em conta a necessidade de evitar efeitos prejudiciais às comunidades de pescadores do Estado costeiro.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Estados geograficamente desfavorecidos são apenas aqueles que não possuem litoral, excluindo-se qualquer Estado com acesso ao mar.</t>
+          <t>A participação de Estados sem litoral é automática e ilimitada, independentemente dos efeitos sobre a indústria pesqueira local do Estado costeiro.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>O Artigo 70, parágrafo 2º, define o termo, incluindo costeiros com certas dependências ou sem ZEE própria.</t>
+          <t>Conforme o **art. 69, 2, "a"**, os termos devem evitar efeitos prejudiciais às comunidades de pescadores do Estado costeiro.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -993,27 +993,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pág 21</t>
+          <t>Pág. 21</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Os direitos de aproveitamento de recursos vivos conferidos a Estados sem litoral não podem ser transferidos a terceiros Estados sem acordo.</t>
+          <t>Os direitos de aproveitamento dos recursos vivos conferidos aos Estados sem litoral ou geograficamente desfavorecidos não podem ser transferidos a terceiros Estados.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Os Estados sem litoral podem vender ou alugar livremente suas quotas de pesca na ZEE vizinha para frotas de terceiros países.</t>
+          <t>Os Estados sem litoral podem vender ou alugar livremente suas cotas de pesca na ZEE de terceiros para obter lucro financeiro.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>O Artigo 72 proíbe a transferência de direitos (concessão ou licença) sem acordo.</t>
+          <t>O texto do **art. 72, 1** proíbe a transferência de direitos a terceiros Estados ou seus nacionais.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pág 21</t>
+          <t>Pág. 21</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>O Estado costeiro pode aplicar pena de prisão automática para tripulações estrangeiras que pesquem ilegalmente na sua ZEE.</t>
+          <t>O Estado costeiro tem liberdade para impor penas de prisão por qualquer violação de pesca em sua ZEE, independentemente de acordos internacionais.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>O Artigo 73, parágrafo 3º, veda penas privativas de liberdade (prisão) para infrações de pesca na ZEE.</t>
+          <t>Segundo o **art. 73, 3**, as sanções não podem incluir penas privativas de liberdade, salvo acordo em contrário.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1061,27 +1061,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pág 21</t>
+          <t>Pág. 21</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Embarcações apresadas e suas tripulações devem ser libertadas sem demora logo que prestada uma fiança idônea.</t>
+          <t>As embarcações apresadas e suas tripulações devem ser libertadas sem demora logo que prestada uma fiança idônea ou outra garantia.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>O Estado costeiro pode reter a embarcação e a tripulação indefinidamente para investigação, mesmo após o oferecimento de fiança.</t>
+          <t>Embarcações estrangeiras apreendidas na ZEE devem permanecer confiscadas até o final do processo judicial, sendo proibida a libertação mediante fiança.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>O Artigo 73, parágrafo 2º, obriga a libertação imediata mediante fiança.</t>
+          <t>De acordo com o **art. 73, 2**, as embarcações devem ser libertadas sem demora após fiança.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1095,27 +1095,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pág 22</t>
+          <t>Pág. 22</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A delimitação da ZEE entre Estados com costas adjacentes deve ser feita por acordo a fim de se chegar a uma solução equitativa.</t>
+          <t>A delimitação da ZEE entre Estados com costas adjacentes deve ser feita por acordo, a fim de se chegar a uma solução equitativa.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A delimitação da ZEE deve seguir obrigatoriamente a linha média geométrica, independentemente de resultar em uma solução equitativa ou não.</t>
+          <t>A delimitação da ZEE entre Estados vizinhos é feita automaticamente pela linha média, sem necessidade de acordo ou considerações de equidade.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>O Artigo 74, parágrafo 1º, estabelece o acordo visando solução equitativa como regra de delimitação.</t>
+          <t>Conforme o **art. 74, 1**, a delimitação deve ser feita por acordo conforme o direito internacional para uma solução equitativa.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1129,12 +1129,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pág 22</t>
+          <t>Pág. 22</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Na ausência de acordo de fronteira, os Estados podem agir unilateralmente na área em disputa, ignorando os interesses do vizinho.</t>
+          <t>Na ausência de acordo definitivo de delimitação, os Estados devem suspender todas as atividades econômicas na área disputada, sendo proibidos ajustes provisórios.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>O Artigo 74, parágrafo 3º, exige ajustes provisórios e cooperação durante o período de transição.</t>
+          <t>O texto do **art. 74, 3** estipula que os Estados devem buscar ajustes provisórios de caráter prático durante o período de transição.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1163,27 +1163,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pág 22</t>
+          <t>Pág. 22</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>O Estado costeiro deve depositar um exemplar das cartas ou listas de coordenadas da ZEE junto do Secretário Geral das Nações Unidas.</t>
+          <t>O Estado costeiro deve dar a devida publicidade às cartas ou listas de coordenadas geográficas dos limites da ZEE e depositar um exemplar junto ao Secretário Geral das Nações Unidas.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A publicidade das coordenadas da ZEE é de interesse puramente doméstico, não havendo obrigação de depósito internacional.</t>
+          <t>As cartas de delimitação da ZEE são documentos sigilosos de segurança nacional e não devem ser divulgadas publicamente ou enviadas à ONU.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>O Artigo 75, parágrafo 2º, obriga o depósito junto ao Secretário Geral da ONU.</t>
+          <t>Segundo o **art. 75, 2**, o Estado deve dar publicidade e depositar exemplar junto ao Secretário Geral das Nações Unidas.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
